--- a/excel/Heart.xlsx
+++ b/excel/Heart.xlsx
@@ -342,10 +342,6 @@
     <row r="11">
       <c r="F11" s="2"/>
     </row>
-    <row r="12">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
